--- a/CASES/05_Challenge_Data/01_Data/OHL_CIGRE_Net_DER.xlsx
+++ b/CASES/05_Challenge_Data/01_Data/OHL_CIGRE_Net_DER.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t xml:space="preserve">Welcome to PywerAPM</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t xml:space="preserve">BOG_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 1</t>
   </si>
   <si>
     <t xml:space="preserve">N5S2</t>
@@ -206,7 +212,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -257,12 +263,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -499,7 +499,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -588,7 +588,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -616,15 +616,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -979,7 +975,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1053,13 +1049,17 @@
       <c r="F2" s="19" t="n">
         <v>2006</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
+      <c r="G2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,21 +1073,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="28" t="n">
         <v>2006</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31" t="s">
+      <c r="G3" s="19" t="s">
         <v>18</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,21 +1105,25 @@
         <v>12</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="28" t="n">
         <v>1998</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31" t="s">
+      <c r="G4" s="19" t="s">
         <v>18</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,21 +1137,25 @@
         <v>13</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="28" t="n">
         <v>1997</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31" t="s">
+      <c r="G5" s="19" t="s">
         <v>18</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1215,33 +1227,33 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="36" t="s">
+      <c r="E1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="34" t="s">
         <v>30</v>
       </c>
+      <c r="G1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="n">
+      <c r="A2" s="36" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="str">
@@ -1255,21 +1267,21 @@
         <f aca="false">VLOOKUP(C2,LN!C2:E5,3)</f>
         <v>BOG_1</v>
       </c>
-      <c r="E2" s="38" t="n">
+      <c r="E2" s="37" t="n">
         <v>42116</v>
       </c>
-      <c r="F2" s="39" t="n">
+      <c r="F2" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="39" t="n">
+      <c r="G2" s="38" t="n">
         <v>25</v>
       </c>
-      <c r="H2" s="39" t="n">
+      <c r="H2" s="38" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="n">
+      <c r="A3" s="39" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="str">
@@ -1283,21 +1295,21 @@
         <f aca="false">VLOOKUP(C3,LN!$C$2:$E$5,3)</f>
         <v>BOG_1</v>
       </c>
-      <c r="E3" s="38" t="n">
+      <c r="E3" s="37" t="n">
         <v>42483</v>
       </c>
-      <c r="F3" s="41" t="n">
+      <c r="F3" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="41" t="n">
+      <c r="G3" s="40" t="n">
         <v>25</v>
       </c>
-      <c r="H3" s="41" t="n">
+      <c r="H3" s="40" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="n">
+      <c r="A4" s="39" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="19" t="str">
@@ -1311,21 +1323,21 @@
         <f aca="false">VLOOKUP(C4,LN!$C$2:$E$5,3)</f>
         <v>BOG_1</v>
       </c>
-      <c r="E4" s="38" t="n">
+      <c r="E4" s="37" t="n">
         <v>43214</v>
       </c>
-      <c r="F4" s="41" t="n">
+      <c r="F4" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="41" t="n">
+      <c r="G4" s="40" t="n">
         <v>24</v>
       </c>
-      <c r="H4" s="41" t="n">
+      <c r="H4" s="40" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="n">
+      <c r="A5" s="39" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="19" t="str">
@@ -1339,21 +1351,21 @@
         <f aca="false">VLOOKUP(C5,LN!$C$2:$E$5,3)</f>
         <v>BOG_1</v>
       </c>
-      <c r="E5" s="38" t="n">
+      <c r="E5" s="37" t="n">
         <v>43580</v>
       </c>
-      <c r="F5" s="41" t="n">
+      <c r="F5" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="41" t="n">
+      <c r="G5" s="40" t="n">
         <v>24</v>
       </c>
-      <c r="H5" s="41" t="n">
+      <c r="H5" s="40" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="n">
+      <c r="A6" s="39" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="19" t="str">
@@ -1367,21 +1379,21 @@
         <f aca="false">VLOOKUP(C6,LN!$C$2:$E$5,3)</f>
         <v>BOG_1</v>
       </c>
-      <c r="E6" s="38" t="n">
+      <c r="E6" s="37" t="n">
         <v>43764</v>
       </c>
-      <c r="F6" s="41" t="n">
+      <c r="F6" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="41" t="n">
+      <c r="G6" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="H6" s="41" t="n">
+      <c r="H6" s="40" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="n">
+      <c r="A7" s="39" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="19" t="str">
@@ -1395,21 +1407,21 @@
         <f aca="false">VLOOKUP(C7,LN!$C$2:$E$5,3)</f>
         <v>BOG_2</v>
       </c>
-      <c r="E7" s="38" t="n">
+      <c r="E7" s="37" t="n">
         <v>40655</v>
       </c>
-      <c r="F7" s="41" t="n">
+      <c r="F7" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="41" t="n">
+      <c r="G7" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="H7" s="41" t="n">
+      <c r="H7" s="40" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="n">
+      <c r="A8" s="39" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="19" t="str">
@@ -1423,21 +1435,21 @@
         <f aca="false">VLOOKUP(C8,LN!$C$2:$E$5,3)</f>
         <v>BOG_2</v>
       </c>
-      <c r="E8" s="38" t="n">
+      <c r="E8" s="37" t="n">
         <v>43212</v>
       </c>
-      <c r="F8" s="41" t="n">
+      <c r="F8" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="41" t="n">
+      <c r="G8" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="H8" s="41" t="n">
+      <c r="H8" s="40" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="n">
+      <c r="A9" s="39" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="19" t="str">
@@ -1451,21 +1463,21 @@
         <f aca="false">VLOOKUP(C9,LN!$C$2:$E$5,3)</f>
         <v>BOG_2</v>
       </c>
-      <c r="E9" s="38" t="n">
+      <c r="E9" s="37" t="n">
         <v>43395</v>
       </c>
-      <c r="F9" s="41" t="n">
+      <c r="F9" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="41" t="n">
+      <c r="G9" s="40" t="n">
         <v>19</v>
       </c>
-      <c r="H9" s="41" t="n">
+      <c r="H9" s="40" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="n">
+      <c r="A10" s="39" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="19" t="str">
@@ -1479,21 +1491,21 @@
         <f aca="false">VLOOKUP(C10,LN!$C$2:$E$5,3)</f>
         <v>BOG_3</v>
       </c>
-      <c r="E10" s="38" t="n">
+      <c r="E10" s="37" t="n">
         <v>43943</v>
       </c>
-      <c r="F10" s="41" t="n">
+      <c r="F10" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="41" t="n">
+      <c r="G10" s="40" t="n">
         <v>25</v>
       </c>
-      <c r="H10" s="41" t="n">
+      <c r="H10" s="40" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="n">
+      <c r="A11" s="39" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="19" t="str">
@@ -1507,21 +1519,21 @@
         <f aca="false">VLOOKUP(C11,LN!$C$2:$E$5,3)</f>
         <v>BOG_3</v>
       </c>
-      <c r="E11" s="38" t="n">
+      <c r="E11" s="37" t="n">
         <v>40655</v>
       </c>
-      <c r="F11" s="41" t="n">
+      <c r="F11" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="41" t="n">
+      <c r="G11" s="40" t="n">
         <v>22</v>
       </c>
-      <c r="H11" s="41" t="n">
+      <c r="H11" s="40" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="n">
+      <c r="A12" s="39" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="19" t="str">
@@ -1535,21 +1547,21 @@
         <f aca="false">VLOOKUP(C12,LN!$C$2:$E$5,3)</f>
         <v>BOG_4</v>
       </c>
-      <c r="E12" s="38" t="n">
+      <c r="E12" s="37" t="n">
         <v>43212</v>
       </c>
-      <c r="F12" s="41" t="n">
+      <c r="F12" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="41" t="n">
+      <c r="G12" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="41" t="n">
+      <c r="H12" s="40" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40" t="n">
+      <c r="A13" s="39" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="19" t="str">
@@ -1563,21 +1575,21 @@
         <f aca="false">VLOOKUP(C13,LN!$C$2:$E$5,3)</f>
         <v>BOG_4</v>
       </c>
-      <c r="E13" s="38" t="n">
+      <c r="E13" s="37" t="n">
         <v>43395</v>
       </c>
-      <c r="F13" s="41" t="n">
+      <c r="F13" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="41" t="n">
+      <c r="G13" s="40" t="n">
         <v>8</v>
       </c>
-      <c r="H13" s="41" t="n">
+      <c r="H13" s="40" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="n">
+      <c r="A14" s="39" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="19" t="str">
@@ -1591,898 +1603,898 @@
         <f aca="false">VLOOKUP(C14,LN!$C$2:$E$5,3)</f>
         <v>BOG_4</v>
       </c>
-      <c r="E14" s="38" t="n">
+      <c r="E14" s="37" t="n">
         <v>43577</v>
       </c>
-      <c r="F14" s="41" t="n">
+      <c r="F14" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="41" t="n">
+      <c r="G14" s="40" t="n">
         <v>8</v>
       </c>
-      <c r="H14" s="41" t="n">
+      <c r="H14" s="40" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="19"/>
       <c r="C15" s="25"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="19"/>
       <c r="C16" s="25"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="19"/>
       <c r="C17" s="25"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="19"/>
       <c r="C18" s="25"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="40"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="19"/>
       <c r="C19" s="25"/>
       <c r="D19" s="28"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="19"/>
       <c r="C20" s="25"/>
       <c r="D20" s="28"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="19"/>
       <c r="C21" s="25"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="19"/>
       <c r="C22" s="25"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="19"/>
       <c r="C23" s="25"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="19"/>
       <c r="C24" s="25"/>
       <c r="D24" s="28"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="40"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="19"/>
       <c r="C25" s="25"/>
       <c r="D25" s="28"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="19"/>
       <c r="C26" s="25"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="19"/>
       <c r="C27" s="25"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="19"/>
       <c r="C28" s="25"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="19"/>
       <c r="C29" s="25"/>
       <c r="D29" s="28"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="19"/>
       <c r="C30" s="25"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="19"/>
       <c r="C31" s="25"/>
       <c r="D31" s="28"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="40"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="19"/>
       <c r="C32" s="25"/>
       <c r="D32" s="28"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="40"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="19"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="40"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="19"/>
       <c r="C34" s="25"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="40"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="19"/>
       <c r="C35" s="25"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="40"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="19"/>
       <c r="C36" s="25"/>
       <c r="D36" s="28"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="40"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="19"/>
       <c r="C37" s="25"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="40"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="19"/>
       <c r="C38" s="25"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="40"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="19"/>
       <c r="C39" s="25"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="40"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="19"/>
       <c r="C40" s="25"/>
       <c r="D40" s="28"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="40"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="19"/>
       <c r="C41" s="25"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="40"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="19"/>
       <c r="C42" s="25"/>
       <c r="D42" s="28"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="40"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="19"/>
       <c r="C43" s="25"/>
       <c r="D43" s="28"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="40"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="19"/>
       <c r="C44" s="25"/>
       <c r="D44" s="28"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="40"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="19"/>
       <c r="C45" s="25"/>
       <c r="D45" s="28"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="40"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="19"/>
       <c r="C46" s="25"/>
       <c r="D46" s="28"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="40"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="19"/>
       <c r="C47" s="25"/>
       <c r="D47" s="28"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="40"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="19"/>
       <c r="C48" s="25"/>
       <c r="D48" s="28"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="40"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="19"/>
       <c r="C49" s="25"/>
       <c r="D49" s="28"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="40"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="19"/>
       <c r="C50" s="25"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="19"/>
       <c r="C51" s="25"/>
       <c r="D51" s="28"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="19"/>
       <c r="C52" s="25"/>
       <c r="D52" s="28"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="19"/>
       <c r="C53" s="25"/>
       <c r="D53" s="28"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="40"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="19"/>
       <c r="C54" s="25"/>
       <c r="D54" s="28"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="40"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="19"/>
       <c r="C55" s="25"/>
       <c r="D55" s="28"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="40"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="19"/>
       <c r="C56" s="25"/>
       <c r="D56" s="28"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="40"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="19"/>
       <c r="C57" s="25"/>
       <c r="D57" s="28"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="40"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="19"/>
       <c r="C58" s="25"/>
       <c r="D58" s="28"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="40"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="19"/>
       <c r="C59" s="25"/>
       <c r="D59" s="28"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="40"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="19"/>
       <c r="C60" s="25"/>
       <c r="D60" s="28"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="40"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="19"/>
       <c r="C61" s="25"/>
       <c r="D61" s="28"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="40"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="19"/>
       <c r="C62" s="25"/>
       <c r="D62" s="28"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="40"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="19"/>
       <c r="C63" s="25"/>
       <c r="D63" s="28"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="40"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="19"/>
       <c r="C64" s="25"/>
       <c r="D64" s="28"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="40"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="19"/>
       <c r="C65" s="25"/>
       <c r="D65" s="28"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="40"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="19"/>
       <c r="C66" s="25"/>
       <c r="D66" s="28"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="40"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="19"/>
       <c r="C67" s="25"/>
       <c r="D67" s="28"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="40"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="19"/>
       <c r="C68" s="25"/>
       <c r="D68" s="28"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="40"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="19"/>
       <c r="C69" s="25"/>
       <c r="D69" s="28"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="40"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="19"/>
       <c r="C70" s="25"/>
       <c r="D70" s="28"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="40"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="19"/>
       <c r="C71" s="25"/>
       <c r="D71" s="28"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="40"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="19"/>
       <c r="C72" s="25"/>
       <c r="D72" s="28"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="40"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="19"/>
       <c r="C73" s="25"/>
       <c r="D73" s="28"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="40"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="19"/>
       <c r="C74" s="25"/>
       <c r="D74" s="28"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="40"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="19"/>
       <c r="C75" s="25"/>
       <c r="D75" s="28"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="40"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="19"/>
       <c r="C76" s="25"/>
       <c r="D76" s="28"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="40"/>
+      <c r="A77" s="39"/>
       <c r="B77" s="19"/>
       <c r="C77" s="25"/>
       <c r="D77" s="28"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="40"/>
+      <c r="A78" s="39"/>
       <c r="B78" s="19"/>
       <c r="C78" s="25"/>
       <c r="D78" s="28"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="40"/>
+      <c r="A79" s="39"/>
       <c r="B79" s="19"/>
       <c r="C79" s="25"/>
       <c r="D79" s="28"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="40"/>
+      <c r="A80" s="39"/>
       <c r="B80" s="19"/>
       <c r="C80" s="25"/>
       <c r="D80" s="28"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="40"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="19"/>
       <c r="C81" s="25"/>
       <c r="D81" s="28"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="40"/>
+      <c r="A82" s="39"/>
       <c r="B82" s="19"/>
       <c r="C82" s="25"/>
       <c r="D82" s="28"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="40"/>
+      <c r="A83" s="39"/>
       <c r="B83" s="19"/>
       <c r="C83" s="25"/>
       <c r="D83" s="28"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="40"/>
+      <c r="A84" s="39"/>
       <c r="B84" s="19"/>
       <c r="C84" s="25"/>
       <c r="D84" s="28"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="40"/>
+      <c r="A85" s="39"/>
       <c r="B85" s="19"/>
       <c r="C85" s="25"/>
       <c r="D85" s="28"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="40"/>
+      <c r="A86" s="39"/>
       <c r="B86" s="19"/>
       <c r="C86" s="25"/>
       <c r="D86" s="28"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="40"/>
+      <c r="A87" s="39"/>
       <c r="B87" s="19"/>
       <c r="C87" s="25"/>
       <c r="D87" s="28"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="40"/>
+      <c r="A88" s="39"/>
       <c r="B88" s="19"/>
       <c r="C88" s="25"/>
       <c r="D88" s="28"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="40"/>
+      <c r="A89" s="39"/>
       <c r="B89" s="19"/>
       <c r="C89" s="25"/>
       <c r="D89" s="28"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="40"/>
+      <c r="A90" s="39"/>
       <c r="B90" s="19"/>
       <c r="C90" s="25"/>
       <c r="D90" s="28"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="40"/>
+      <c r="A91" s="39"/>
       <c r="B91" s="19"/>
       <c r="C91" s="25"/>
       <c r="D91" s="28"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="40"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="19"/>
       <c r="C92" s="25"/>
       <c r="D92" s="28"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="40"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="19"/>
       <c r="C93" s="25"/>
       <c r="D93" s="28"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="40"/>
+      <c r="A94" s="39"/>
       <c r="B94" s="19"/>
       <c r="C94" s="25"/>
       <c r="D94" s="28"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="40"/>
+      <c r="A95" s="39"/>
       <c r="B95" s="19"/>
       <c r="C95" s="25"/>
       <c r="D95" s="28"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="40"/>
+      <c r="A96" s="39"/>
       <c r="B96" s="19"/>
       <c r="C96" s="25"/>
       <c r="D96" s="28"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="40"/>
+      <c r="A97" s="39"/>
       <c r="B97" s="19"/>
       <c r="C97" s="25"/>
       <c r="D97" s="28"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="40"/>
+      <c r="A98" s="39"/>
       <c r="B98" s="19"/>
       <c r="C98" s="25"/>
       <c r="D98" s="28"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="40"/>
+      <c r="A99" s="39"/>
       <c r="B99" s="19"/>
       <c r="C99" s="25"/>
       <c r="D99" s="28"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="40"/>
+      <c r="A100" s="39"/>
       <c r="B100" s="19"/>
       <c r="C100" s="25"/>
       <c r="D100" s="28"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="40"/>
+      <c r="A101" s="39"/>
       <c r="B101" s="19"/>
       <c r="C101" s="25"/>
       <c r="D101" s="28"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="40"/>
+      <c r="A102" s="39"/>
       <c r="B102" s="19"/>
       <c r="C102" s="25"/>
       <c r="D102" s="28"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
     </row>
     <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2619,954 +2631,954 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>32</v>
+      <c r="E1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="19"/>
       <c r="C2" s="28"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="42"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="44"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="44"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="44"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="44"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="44"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="44"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="44"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="44"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="44"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="44"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="43"/>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="44"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="43"/>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="44"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="43"/>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="44"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="43"/>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="44"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="43"/>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="44"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="44"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="40"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="44"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="44"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="43"/>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="44"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="43"/>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="44"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="43"/>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="44"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="43"/>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="44"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="43"/>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="40"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="44"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="44"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="44"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="44"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="44"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="44"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="44"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="40"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="44"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="43"/>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="40"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="44"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="40"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="44"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="43"/>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="40"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="44"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="43"/>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="40"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="44"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="40"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="44"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="40"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="19"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="44"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="40"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="44"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="40"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="28"/>
       <c r="C40" s="25"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="44"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="43"/>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="40"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="28"/>
       <c r="C41" s="25"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="44"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="43"/>
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="40"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="28"/>
       <c r="C42" s="25"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="44"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="43"/>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="40"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="28"/>
       <c r="C43" s="25"/>
       <c r="D43" s="19"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="44"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="43"/>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="40"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="28"/>
       <c r="C44" s="25"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="44"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="43"/>
     </row>
     <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="40"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="28"/>
       <c r="C45" s="25"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="44"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="43"/>
     </row>
     <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="40"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="28"/>
       <c r="C46" s="25"/>
       <c r="D46" s="19"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="44"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="43"/>
     </row>
     <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="40"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="28"/>
       <c r="C47" s="25"/>
       <c r="D47" s="19"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="44"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="43"/>
     </row>
     <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="40"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="28"/>
       <c r="C48" s="25"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="44"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="43"/>
     </row>
     <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="40"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="28"/>
       <c r="C49" s="25"/>
       <c r="D49" s="19"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="44"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="43"/>
     </row>
     <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="40"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="28"/>
       <c r="C50" s="25"/>
       <c r="D50" s="19"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="44"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="43"/>
     </row>
     <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="28"/>
       <c r="C51" s="25"/>
       <c r="D51" s="19"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="44"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="43"/>
     </row>
     <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="28"/>
       <c r="C52" s="25"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="44"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="43"/>
     </row>
     <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="28"/>
       <c r="C53" s="25"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="44"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="43"/>
     </row>
     <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="40"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="28"/>
       <c r="C54" s="25"/>
       <c r="D54" s="19"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="44"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="43"/>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="40"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="28"/>
       <c r="C55" s="25"/>
       <c r="D55" s="19"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="44"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="43"/>
     </row>
     <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="40"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="28"/>
       <c r="C56" s="25"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="44"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="43"/>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="40"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="28"/>
       <c r="C57" s="25"/>
       <c r="D57" s="19"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="44"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="43"/>
     </row>
     <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="40"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="28"/>
       <c r="C58" s="25"/>
       <c r="D58" s="19"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="44"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="43"/>
     </row>
     <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="40"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="28"/>
       <c r="C59" s="25"/>
       <c r="D59" s="19"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="44"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="43"/>
     </row>
     <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="40"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="28"/>
       <c r="C60" s="25"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="44"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="43"/>
     </row>
     <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="40"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="28"/>
       <c r="C61" s="25"/>
       <c r="D61" s="19"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="44"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="43"/>
     </row>
     <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="40"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="28"/>
       <c r="C62" s="25"/>
       <c r="D62" s="19"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="44"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="43"/>
     </row>
     <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="40"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="28"/>
       <c r="C63" s="25"/>
       <c r="D63" s="19"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="44"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="43"/>
     </row>
     <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="40"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="28"/>
       <c r="C64" s="25"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="44"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="43"/>
     </row>
     <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="40"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="28"/>
       <c r="C65" s="25"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="44"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="43"/>
     </row>
     <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="40"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="28"/>
       <c r="C66" s="25"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="44"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="43"/>
     </row>
     <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="40"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="28"/>
       <c r="C67" s="25"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="44"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="43"/>
     </row>
     <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="40"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="28"/>
       <c r="C68" s="25"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="44"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="43"/>
     </row>
     <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="40"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="28"/>
       <c r="C69" s="25"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="44"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="43"/>
     </row>
     <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="40"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="28"/>
       <c r="C70" s="25"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="44"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="43"/>
     </row>
     <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="40"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="28"/>
       <c r="C71" s="25"/>
       <c r="D71" s="19"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="44"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="43"/>
     </row>
     <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="40"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="28"/>
       <c r="C72" s="25"/>
       <c r="D72" s="19"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="44"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="43"/>
     </row>
     <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="40"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="28"/>
       <c r="C73" s="25"/>
       <c r="D73" s="19"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="44"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="43"/>
     </row>
     <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="40"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="28"/>
       <c r="C74" s="25"/>
       <c r="D74" s="19"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="44"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="43"/>
     </row>
     <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="40"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="28"/>
       <c r="C75" s="25"/>
       <c r="D75" s="19"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="44"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="43"/>
     </row>
     <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="40"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="28"/>
       <c r="C76" s="25"/>
       <c r="D76" s="19"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="44"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="43"/>
     </row>
     <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="40"/>
+      <c r="A77" s="39"/>
       <c r="B77" s="28"/>
       <c r="C77" s="25"/>
       <c r="D77" s="19"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="44"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="43"/>
     </row>
     <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="40"/>
+      <c r="A78" s="39"/>
       <c r="B78" s="28"/>
       <c r="C78" s="25"/>
       <c r="D78" s="19"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="44"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="43"/>
     </row>
     <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="40"/>
+      <c r="A79" s="39"/>
       <c r="B79" s="28"/>
       <c r="C79" s="25"/>
       <c r="D79" s="19"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="44"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="43"/>
     </row>
     <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="40"/>
+      <c r="A80" s="39"/>
       <c r="B80" s="28"/>
       <c r="C80" s="25"/>
       <c r="D80" s="19"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="44"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="43"/>
     </row>
     <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="40"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="28"/>
       <c r="C81" s="25"/>
       <c r="D81" s="19"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="44"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="43"/>
     </row>
     <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="40"/>
+      <c r="A82" s="39"/>
       <c r="B82" s="28"/>
       <c r="C82" s="25"/>
       <c r="D82" s="19"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="44"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="43"/>
     </row>
     <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="40"/>
+      <c r="A83" s="39"/>
       <c r="B83" s="28"/>
       <c r="C83" s="25"/>
       <c r="D83" s="19"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="44"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="43"/>
     </row>
     <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="40"/>
+      <c r="A84" s="39"/>
       <c r="B84" s="28"/>
       <c r="C84" s="25"/>
       <c r="D84" s="19"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="44"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="43"/>
     </row>
     <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="40"/>
+      <c r="A85" s="39"/>
       <c r="B85" s="28"/>
       <c r="C85" s="25"/>
       <c r="D85" s="19"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="44"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="43"/>
     </row>
     <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="40"/>
+      <c r="A86" s="39"/>
       <c r="B86" s="28"/>
       <c r="C86" s="25"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="44"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="43"/>
     </row>
     <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="40"/>
+      <c r="A87" s="39"/>
       <c r="B87" s="28"/>
       <c r="C87" s="25"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="44"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="43"/>
     </row>
     <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="40"/>
+      <c r="A88" s="39"/>
       <c r="B88" s="28"/>
       <c r="C88" s="25"/>
       <c r="D88" s="19"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="44"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="43"/>
     </row>
     <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="40"/>
+      <c r="A89" s="39"/>
       <c r="B89" s="28"/>
       <c r="C89" s="25"/>
       <c r="D89" s="19"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="44"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="43"/>
     </row>
     <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="40"/>
+      <c r="A90" s="39"/>
       <c r="B90" s="28"/>
       <c r="C90" s="25"/>
       <c r="D90" s="19"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="44"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="43"/>
     </row>
     <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="40"/>
+      <c r="A91" s="39"/>
       <c r="B91" s="28"/>
       <c r="C91" s="25"/>
       <c r="D91" s="19"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="44"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="43"/>
     </row>
     <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="40"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="28"/>
       <c r="C92" s="25"/>
       <c r="D92" s="19"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="44"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="43"/>
     </row>
     <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="40"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="28"/>
       <c r="C93" s="25"/>
       <c r="D93" s="19"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="44"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="43"/>
     </row>
     <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="40"/>
+      <c r="A94" s="39"/>
       <c r="B94" s="28"/>
       <c r="C94" s="25"/>
       <c r="D94" s="19"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="44"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="43"/>
     </row>
     <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="40"/>
+      <c r="A95" s="39"/>
       <c r="B95" s="28"/>
       <c r="C95" s="25"/>
       <c r="D95" s="19"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="44"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="43"/>
     </row>
     <row r="96" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="40"/>
+      <c r="A96" s="39"/>
       <c r="B96" s="28"/>
       <c r="C96" s="25"/>
       <c r="D96" s="19"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="44"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="43"/>
     </row>
     <row r="97" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="40"/>
+      <c r="A97" s="39"/>
       <c r="B97" s="28"/>
       <c r="C97" s="25"/>
       <c r="D97" s="19"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="44"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="43"/>
     </row>
     <row r="98" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="40"/>
+      <c r="A98" s="39"/>
       <c r="B98" s="28"/>
       <c r="C98" s="25"/>
       <c r="D98" s="19"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="44"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="43"/>
     </row>
     <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="40"/>
+      <c r="A99" s="39"/>
       <c r="B99" s="28"/>
       <c r="C99" s="25"/>
       <c r="D99" s="19"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="44"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="43"/>
     </row>
     <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="40"/>
+      <c r="A100" s="39"/>
       <c r="B100" s="28"/>
       <c r="C100" s="25"/>
       <c r="D100" s="19"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="44"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="43"/>
     </row>
     <row r="101" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="40"/>
+      <c r="A101" s="39"/>
       <c r="B101" s="28"/>
       <c r="C101" s="25"/>
       <c r="D101" s="19"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="44"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="43"/>
     </row>
     <row r="102" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="40"/>
+      <c r="A102" s="39"/>
       <c r="B102" s="28"/>
       <c r="C102" s="25"/>
       <c r="D102" s="19"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="44"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="43"/>
     </row>
     <row r="103" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="40"/>
+      <c r="A103" s="39"/>
       <c r="B103" s="28"/>
       <c r="C103" s="25"/>
       <c r="D103" s="19"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="44"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="43"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="40"/>
+      <c r="A104" s="39"/>
       <c r="B104" s="28"/>
       <c r="C104" s="25"/>
       <c r="D104" s="19"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="44"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="43"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3599,594 +3611,594 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>34</v>
+      <c r="E1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="45"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="40"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="40"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="40"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="40"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="40"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="40"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="40"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="40"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="40"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="40"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="40"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="40"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="40"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="40"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="40"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="40"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="40"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="40"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="44"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="40"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="44"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="40"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="40"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="45"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="44"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="45"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="44"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="45"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="44"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="44"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="40"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="45"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="44"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="40"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="44"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="40"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="45"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="44"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="40"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="45"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="44"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="40"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="45"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="44"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="40"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="45"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="44"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="40"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="45"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="44"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="40"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="28"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="45"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="44"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="40"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="28"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="45"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="44"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="40"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="28"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="45"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="44"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="40"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="28"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="45"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="44"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4216,21 +4228,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
